--- a/medicine/Pharmacie/Antoine_Balland_(chimiste)/Antoine_Balland_(chimiste).xlsx
+++ b/medicine/Pharmacie/Antoine_Balland_(chimiste)/Antoine_Balland_(chimiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Antoine Félix Balland, né le 16 janvier 1845 à Saint-Julien-sur-Reyssouze[1], et mort le 6 janvier 1927 à Paris 7e[2],[3],[4] est un chimiste, pharmacien et historien des sciences français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Antoine Félix Balland, né le 16 janvier 1845 à Saint-Julien-sur-Reyssouze, et mort le 6 janvier 1927 à Paris 7e est un chimiste, pharmacien et historien des sciences français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Denis Félix Balland et de Constance Eugénie Priche, il était pharmacien militaire, chimiste et historien scientifique, ainsi que le directeur des laboratoires d'expertise de l'Hôtel des Invalides.
 Bachelier ès sciences au lycée de Bourg-en-Bresse, élève en pharmacie puis à l'Ecole impériale du service de santé militaire de Strasbourg, il devient pharmacien de 1ère classe en 1868 et va suivre les cours du Val-de-Grâce de 1865 à 1868, mais aussi les cours du botaniste Pierre Étienne Simon Duchartre et du naturaliste Milne-Edwards à la Faculté des sciences de Paris. 
@@ -550,21 +564,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sociétés
-Académie d'agriculture de France : membre non résidant, 1919-1927
+          <t>Sociétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Académie d'agriculture de France : membre non résidant, 1919-1927
 Académie des sciences : correspondant 1912-1927 (section d'économie rurale)
 Académie nationale de médecine : membre correspondant, 1877, membre associé national, 1910-1927
 Société d'histoire de la pharmacie : membre cofondateur, 1913
-Société de pharmacie de Lyon
-Décorations
-Officier d'Académie en 1883
- Chevalier de la Légion d'honneur en 1885
- Officier de la Légion d'honneur en 1901
- Officier de l'Instruction publique
- Officier de l'ordre du Mérite agricole
-Prix
-Lauréat du Prix Montyon de l'Académie des sciences (1894)
-Médaille d’or de la Société nationale d’agriculture</t>
+Société de pharmacie de Lyon</t>
         </is>
       </c>
     </row>
@@ -589,10 +599,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Reconnaissance</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Officier d'Académie en 1883
+ Chevalier de la Légion d'honneur en 1885
+ Officier de la Légion d'honneur en 1901
+ Officier de l'Instruction publique
+ Officier de l'ordre du Mérite agricole</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antoine_Balland_(chimiste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Balland_(chimiste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Reconnaissance</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lauréat du Prix Montyon de l'Académie des sciences (1894)
+Médaille d’or de la Société nationale d’agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antoine_Balland_(chimiste)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Balland_(chimiste)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Physiologie végétale. De l'influence des climats sur la maturation des blés, 1880.
 Travaux scientifiques des pharmaciens militaires français, Paris, Asselin, 1882.
@@ -618,7 +707,7 @@
 Sur les graines du baobab, Paris, Levé, 1904.
 Les pharmaciens en chef d'armée, Paris, 1905.
 Sur les terres comestibles, Paris, Levé, 1906.
-Le chimiste Dizé : sa vie, ses travaux (1764-1852), avec Albert Pillas, Paris, Baillière, 1906[5].
+Le chimiste Dizé : sa vie, ses travaux (1764-1852), avec Albert Pillas, Paris, Baillière, 1906.
 Les aliments : analyse, expertise, valeur alimentaire, Paris, Baillière, 1907.
 Les aliments 1, Céréales : analyse, expertise, valeur alimentaire, Paris, Baillière, 1907.
 Les aliments 2, Légumes, fruits, viandes, laitages, conserves, boissons &amp; fourrages : analyse, expertise, valeur alimentaire, Paris, Baillière, 1907.
